--- a/Assets/ExcelDB/HumalUpgradeDB.xlsx
+++ b/Assets/ExcelDB/HumalUpgradeDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Invasion\Assets\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7567A73-A03B-433B-956D-444C2ADD3D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C7101-DD0C-4C64-8B87-689D1EEA2797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32820" yWindow="525" windowWidth="19110" windowHeight="14925" activeTab="1" xr2:uid="{26DD9330-E26B-4910-B614-A3FD827AB6C2}"/>
+    <workbookView xWindow="2490" yWindow="750" windowWidth="19110" windowHeight="14925" activeTab="1" xr2:uid="{26DD9330-E26B-4910-B614-A3FD827AB6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C3C71-DCE8-4732-97F2-B4945B93E7A7}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,20 +753,9 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="C30">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>500000</v>
-      </c>
-      <c r="C31">
         <v>5000</v>
       </c>
     </row>
@@ -781,7 +770,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,7 +789,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -808,7 +797,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -816,7 +805,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -824,7 +813,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -832,7 +821,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>70</v>
@@ -840,7 +829,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -848,7 +837,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>120</v>
@@ -856,7 +845,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>140</v>
@@ -864,7 +853,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>160</v>
@@ -872,7 +861,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>200</v>
